--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spasha\Documents\Masters\Upgrad\Assignments\GradedAssignments\consumer_lending_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A230FF-18A4-482B-9C67-D03643C505C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA66AD3F-600A-489E-AD7F-98F1DA52E6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="313">
   <si>
     <t>id</t>
   </si>
@@ -884,9 +884,6 @@
   </si>
   <si>
     <t xml:space="preserve">       'inq_last_6mths'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'mths_since_last_record'</t>
   </si>
   <si>
     <t xml:space="preserve">       'open_acc'</t>
@@ -3097,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964AEAB-ACC5-48D4-818F-4F5456681AB4}">
   <dimension ref="C4:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3137,29 +3134,29 @@
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="29"/>
       <c r="D18" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>291</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>292</v>
       </c>
       <c r="J18" s="26"/>
       <c r="L18" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M18" s="26"/>
       <c r="O18" s="25"/>
@@ -3188,13 +3185,13 @@
         <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="29"/>
       <c r="D20" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>261</v>
@@ -3212,13 +3209,13 @@
         <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="29"/>
       <c r="D21" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>265</v>
@@ -3233,13 +3230,13 @@
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="29"/>
       <c r="D22" s="32" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>259</v>
@@ -3248,7 +3245,7 @@
         <v>256</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>232</v>
@@ -3260,14 +3257,11 @@
         <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="3:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="29"/>
-      <c r="D23" s="32" t="s">
-        <v>266</v>
-      </c>
       <c r="E23" s="32" t="s">
         <v>257</v>
       </c>
@@ -3275,16 +3269,16 @@
         <v>263</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
@@ -3296,13 +3290,13 @@
         <v>269</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
       </c>
       <c r="M24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
@@ -3314,7 +3308,7 @@
         <v>262</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>18</v>
@@ -3326,7 +3320,7 @@
         <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
@@ -3334,9 +3328,6 @@
       <c r="F26" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>260</v>
-      </c>
       <c r="J26" s="24" t="s">
         <v>11</v>
       </c>
@@ -3346,9 +3337,6 @@
       <c r="F27" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="G27" s="32" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
@@ -3362,7 +3350,7 @@
     <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="29"/>
       <c r="F29" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
@@ -3407,13 +3395,13 @@
         <v>26</v>
       </c>
       <c r="Q36" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="S36" s="28" t="s">
         <v>309</v>
-      </c>
-      <c r="R36" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="S36" s="28" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -3421,13 +3409,13 @@
         <v>22</v>
       </c>
       <c r="Q37" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R37" s="29" t="s">
         <v>249</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -3441,7 +3429,7 @@
         <v>250</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -3463,10 +3451,10 @@
         <v>20</v>
       </c>
       <c r="Q40" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S40" s="29" t="s">
         <v>273</v>
@@ -3483,7 +3471,7 @@
         <v>253</v>
       </c>
       <c r="S41" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -3497,7 +3485,7 @@
         <v>254</v>
       </c>
       <c r="S42" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -3519,13 +3507,13 @@
         <v>30</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R44" s="29" t="s">
         <v>256</v>
       </c>
       <c r="S44" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -3539,7 +3527,7 @@
         <v>261</v>
       </c>
       <c r="S45" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.55000000000000004">
@@ -3550,7 +3538,7 @@
         <v>281</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S46" s="29" t="s">
         <v>275</v>
@@ -3559,7 +3547,7 @@
     <row r="47" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J47" s="18"/>
       <c r="Q47" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R47" s="29" t="s">
         <v>263</v>
@@ -3576,7 +3564,7 @@
         <v>20</v>
       </c>
       <c r="Q48" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R48" s="29" t="s">
         <v>265</v>
@@ -3610,7 +3598,7 @@
         <v>279</v>
       </c>
       <c r="S50" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="9:19" x14ac:dyDescent="0.55000000000000004">
@@ -3633,7 +3621,7 @@
     </row>
     <row r="54" spans="9:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J54" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="9:19" x14ac:dyDescent="0.55000000000000004">
@@ -3686,7 +3674,7 @@
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J66" s="24" t="s">
         <v>20</v>
@@ -3740,7 +3728,7 @@
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="J76" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.55000000000000004">
